--- a/UCProject/src/data/ScheduleExcel.xlsx
+++ b/UCProject/src/data/ScheduleExcel.xlsx
@@ -14,46 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="30">
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Password Login</t>
-  </si>
-  <si>
-    <t>ID Login</t>
-  </si>
-  <si>
-    <t>Account Name (*)</t>
-  </si>
-  <si>
-    <t>Email (*)</t>
-  </si>
-  <si>
-    <t>Full Name (*)</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>Phone No.</t>
-  </si>
-  <si>
-    <t>Code (*)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Result</t>
   </si>
@@ -61,56 +22,25 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>0220</t>
-  </si>
-  <si>
-    <t>D.Na233</t>
-  </si>
-  <si>
-    <t>Dicentral233</t>
-  </si>
-  <si>
-    <t>VN233</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>0935555555</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NewTest0006</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>sTest0006</t>
-  </si>
-  <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>Time Run</t>
+  </si>
+  <si>
+    <t>Recur Time</t>
+  </si>
+  <si>
+    <t>06:00 PM</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,10 +113,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,137 +421,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"Trial,Standard"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/UCProject/src/data/ScheduleExcel.xlsx
+++ b/UCProject/src/data/ScheduleExcel.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Result</t>
   </si>
@@ -22,25 +22,59 @@
     <t>STT</t>
   </si>
   <si>
+    <t>Time Run</t>
+  </si>
+  <si>
+    <t>Recur Time</t>
+  </si>
+  <si>
+    <t>Run's kinds</t>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>zDaily2</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>04:05 PM</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>Time Run</t>
-  </si>
-  <si>
-    <t>Recur Time</t>
-  </si>
-  <si>
-    <t>06:00 PM</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,50 +455,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Onetime,Daily,Monthly,Weekly"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"'246cn,'357,all"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/UCProject/src/data/ScheduleExcel.xlsx
+++ b/UCProject/src/data/ScheduleExcel.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>Result</t>
   </si>
@@ -61,20 +62,145 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>04:05 PM</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>zDaily1</t>
+  </si>
+  <si>
+    <t>zDaily3</t>
+  </si>
+  <si>
+    <t>zDaily4</t>
+  </si>
+  <si>
+    <t>zDaily5</t>
+  </si>
+  <si>
+    <t>zDaily6</t>
+  </si>
+  <si>
+    <t>zWeekly1</t>
+  </si>
+  <si>
+    <t>zWeekly2</t>
+  </si>
+  <si>
+    <t>zWeekly3</t>
+  </si>
+  <si>
+    <t>zWeekly4</t>
+  </si>
+  <si>
+    <t>zWeekly5</t>
+  </si>
+  <si>
+    <t>zWeekly6</t>
+  </si>
+  <si>
+    <t>zWeekly7</t>
+  </si>
+  <si>
+    <t>zWeekly8</t>
+  </si>
+  <si>
+    <t>zWeekly9</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>246cn</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Daily Recur 2</t>
+  </si>
+  <si>
+    <t>Daily Recur 3</t>
+  </si>
+  <si>
+    <t>Daily Recur 4</t>
+  </si>
+  <si>
+    <t>Daily Recur 5</t>
+  </si>
+  <si>
+    <t>Daily Recur 6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Weekly recur 1 run on 3 5 7</t>
+  </si>
+  <si>
+    <t>Weekly recur 2 run on 2 4 6 Sun</t>
+  </si>
+  <si>
+    <t>Weekly recur 3 run all</t>
+  </si>
+  <si>
+    <t>Weekly recur 4 run on 3 5 7</t>
+  </si>
+  <si>
+    <t>Weekly recur 5 run on 2  4 6 Sun</t>
+  </si>
+  <si>
+    <t>Weekly recur 6 run on 3 5 7</t>
+  </si>
+  <si>
+    <t>Weekly recur 7 run on 2  4 6 Sun</t>
+  </si>
+  <si>
+    <t>Weekly recur 8 run on 3 5 7</t>
+  </si>
+  <si>
+    <t>Weekly recur 9 run all</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>FAILED</t>
+    <t xml:space="preserve">Daily Recur 1 </t>
+  </si>
+  <si>
+    <t>10:05 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,29 +581,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -502,11 +629,14 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -517,10 +647,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -531,20 +661,446 @@
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16">
       <formula1>"Onetime,Daily,Monthly,Weekly"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16">
       <formula1>"'246cn,'357,all"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UCProject/src/data/ScheduleExcel.xlsx
+++ b/UCProject/src/data/ScheduleExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>Result</t>
   </si>
@@ -201,6 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,18 +591,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +666,7 @@
         <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
         <v>15</v>
@@ -699,6 +700,9 @@
       <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -728,6 +732,9 @@
       <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -757,6 +764,9 @@
       <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -786,6 +796,9 @@
       <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -815,6 +828,9 @@
       <c r="I7" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -844,6 +860,9 @@
       <c r="I8" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -873,6 +892,9 @@
       <c r="I9" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -902,6 +924,9 @@
       <c r="I10" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -930,6 +955,9 @@
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -960,6 +988,9 @@
       <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -989,6 +1020,9 @@
       <c r="I13" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="P13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1018,6 +1052,9 @@
       <c r="I14" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1047,6 +1084,9 @@
       <c r="I15" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1075,6 +1115,9 @@
       </c>
       <c r="I16" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/UCProject/src/data/ScheduleExcel.xlsx
+++ b/UCProject/src/data/ScheduleExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>Result</t>
   </si>
@@ -62,19 +62,91 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily Recur 1 </t>
-  </si>
-  <si>
-    <t>10:05 AM</t>
-  </si>
-  <si>
-    <t>Monthly</t>
+    <t>15:00 AM</t>
+  </si>
+  <si>
+    <t>zWeekly2</t>
+  </si>
+  <si>
+    <t>zWeekly3</t>
+  </si>
+  <si>
+    <t>zWeekly4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Daily Recur 2</t>
+  </si>
+  <si>
+    <t>Daily Recur 3</t>
+  </si>
+  <si>
+    <t>Daily Recur 4</t>
+  </si>
+  <si>
+    <t>246cn</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>zDaily2</t>
+  </si>
+  <si>
+    <t>zDaily3</t>
+  </si>
+  <si>
+    <t>zDaily4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>zWeekly5</t>
+  </si>
+  <si>
+    <t>zWeekly6</t>
+  </si>
+  <si>
+    <t>zWeekly7</t>
+  </si>
+  <si>
+    <t>zWeekly8</t>
+  </si>
+  <si>
+    <t>zWeekly9</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>Jan</t>
+    <t>04:00 PM</t>
   </si>
 </sst>
 </file>
@@ -140,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +227,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,11 +537,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +560,7 @@
     <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -517,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -528,37 +603,31 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"'246cn,'357,all,Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"Onetime,Daily,Monthly,Weekly"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"'246cn,'357,all,Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,14 +637,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J14"/>
+      <selection sqref="A1:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H8:H12">
+      <formula1>"'246cn,'357,all,Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G12">
+      <formula1>"Onetime,Daily,Monthly,Weekly"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UCProject/src/data/ScheduleExcel.xlsx
+++ b/UCProject/src/data/ScheduleExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="187">
   <si>
     <t>Result</t>
   </si>
@@ -53,18 +53,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>zDaily1</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>15:00 AM</t>
-  </si>
-  <si>
     <t>zWeekly2</t>
   </si>
   <si>
@@ -74,27 +68,9 @@
     <t>zWeekly4</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Weekly</t>
   </si>
   <si>
-    <t>Daily Recur 2</t>
-  </si>
-  <si>
-    <t>Daily Recur 3</t>
-  </si>
-  <si>
-    <t>Daily Recur 4</t>
-  </si>
-  <si>
     <t>246cn</t>
   </si>
   <si>
@@ -113,18 +89,6 @@
     <t>zDaily4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -143,10 +107,475 @@
     <t>zWeekly9</t>
   </si>
   <si>
+    <t>Onetime</t>
+  </si>
+  <si>
+    <t>@12</t>
+  </si>
+  <si>
+    <t>08202019_Th1</t>
+  </si>
+  <si>
+    <t>08202019_th2</t>
+  </si>
+  <si>
+    <t>8192019_Th1</t>
+  </si>
+  <si>
+    <t>8212019_th</t>
+  </si>
+  <si>
+    <t>@1</t>
+  </si>
+  <si>
+    <t>@10</t>
+  </si>
+  <si>
+    <t>@11</t>
+  </si>
+  <si>
+    <t>@13</t>
+  </si>
+  <si>
+    <t>@14</t>
+  </si>
+  <si>
+    <t>@15</t>
+  </si>
+  <si>
+    <t>@16</t>
+  </si>
+  <si>
+    <t>@17</t>
+  </si>
+  <si>
+    <t>@18</t>
+  </si>
+  <si>
+    <t>@19</t>
+  </si>
+  <si>
+    <t>@2</t>
+  </si>
+  <si>
+    <t>@3</t>
+  </si>
+  <si>
+    <t>@4</t>
+  </si>
+  <si>
+    <t>@5</t>
+  </si>
+  <si>
+    <t>@6</t>
+  </si>
+  <si>
+    <t>@7</t>
+  </si>
+  <si>
+    <t>@8</t>
+  </si>
+  <si>
+    <t>@9</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>Atest</t>
+  </si>
+  <si>
+    <t>Atest1</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>BuildApr16</t>
+  </si>
+  <si>
+    <t>BuildApr25</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>CRM_CREATE_CONTACT</t>
+  </si>
+  <si>
+    <t>CRM_TO_NS_(Contact_Cus)</t>
+  </si>
+  <si>
+    <t>Daily_VDT</t>
+  </si>
+  <si>
+    <t>Demo 06062019</t>
+  </si>
+  <si>
+    <t>demo 06112019</t>
+  </si>
+  <si>
+    <t>demo 10072019</t>
+  </si>
+  <si>
+    <t>DemoNI+C 052019</t>
+  </si>
+  <si>
+    <t>DISK_TO_DISK</t>
+  </si>
+  <si>
+    <t>DISK_TO_MAGENTO</t>
+  </si>
+  <si>
+    <t>DiUniteToCleanse_caseOK</t>
+  </si>
+  <si>
+    <t>double activity 1</t>
+  </si>
+  <si>
+    <t>Envelope Ng 2</t>
+  </si>
+  <si>
+    <t>FlowSCD</t>
+  </si>
+  <si>
+    <t>FlowSCMD</t>
+  </si>
+  <si>
+    <t>FlowSCMS</t>
+  </si>
+  <si>
+    <t>FLowSMD</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>Integrate ng 1</t>
+  </si>
+  <si>
+    <t>IntegrationTh</t>
+  </si>
+  <si>
+    <t>IntegrationTh2</t>
+  </si>
+  <si>
+    <t>Inventory_ST_NS</t>
+  </si>
+  <si>
+    <t>Inventory_ST_NS_update</t>
+  </si>
+  <si>
+    <t>Magento Demo</t>
+  </si>
+  <si>
+    <t>Magento_To_Disk_Full</t>
+  </si>
+  <si>
+    <t>MagentoDemo</t>
+  </si>
+  <si>
+    <t>Map ng 1</t>
+  </si>
+  <si>
+    <t>Map ng 2</t>
+  </si>
+  <si>
+    <t>MGT</t>
+  </si>
+  <si>
+    <t>Monthly4725</t>
+  </si>
+  <si>
+    <t>New Map ng1</t>
+  </si>
+  <si>
+    <t>new new nw</t>
+  </si>
+  <si>
+    <t>None_End</t>
+  </si>
+  <si>
+    <t>Notify_test_1</t>
+  </si>
+  <si>
+    <t>OnceTime_VDT</t>
+  </si>
+  <si>
+    <t>Process8192019</t>
+  </si>
+  <si>
+    <t>Qctest</t>
+  </si>
+  <si>
+    <t>sdfsdfdsf</t>
+  </si>
+  <si>
+    <t>SSMS</t>
+  </si>
+  <si>
+    <t>ST_CLEANSE_DISK</t>
+  </si>
+  <si>
+    <t>ST_MAP_DISK</t>
+  </si>
+  <si>
+    <t>ST_SERVER</t>
+  </si>
+  <si>
+    <t>ST_TO_CRM_(Cus_Contact)</t>
+  </si>
+  <si>
+    <t>ST_TO_DY365BC (Customer)</t>
+  </si>
+  <si>
+    <t>STBAtoBPMCustomer</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test tracking field</t>
+  </si>
+  <si>
+    <t>Test tracking field 2</t>
+  </si>
+  <si>
+    <t>Test3072019</t>
+  </si>
+  <si>
+    <t>Test7152019</t>
+  </si>
+  <si>
+    <t>Test_1234</t>
+  </si>
+  <si>
+    <t>Test_layout</t>
+  </si>
+  <si>
+    <t>TestDaily</t>
+  </si>
+  <si>
+    <t>TestDaily2</t>
+  </si>
+  <si>
+    <t>TestMonthly1</t>
+  </si>
+  <si>
+    <t>TestMonthly2</t>
+  </si>
+  <si>
+    <t>TestMonthly3</t>
+  </si>
+  <si>
+    <t>TestMonthly4</t>
+  </si>
+  <si>
+    <t>TestMonthly5</t>
+  </si>
+  <si>
+    <t>TestProcess1</t>
+  </si>
+  <si>
+    <t>TestProcess2</t>
+  </si>
+  <si>
+    <t>TestProcess3</t>
+  </si>
+  <si>
+    <t>TestProcess4</t>
+  </si>
+  <si>
+    <t>TestProcess5</t>
+  </si>
+  <si>
+    <t>TestProcess6</t>
+  </si>
+  <si>
+    <t>TestProcess9</t>
+  </si>
+  <si>
+    <t>testqc1</t>
+  </si>
+  <si>
+    <t>TestTM</t>
+  </si>
+  <si>
+    <t>TestWeekly1</t>
+  </si>
+  <si>
+    <t>TestWeekly3</t>
+  </si>
+  <si>
+    <t>TestWeekly4</t>
+  </si>
+  <si>
+    <t>TestWeekly5</t>
+  </si>
+  <si>
+    <t>Thanh LE</t>
+  </si>
+  <si>
+    <t>thProcessTest1</t>
+  </si>
+  <si>
+    <t>Thư test</t>
+  </si>
+  <si>
+    <t>Thư test 2</t>
+  </si>
+  <si>
+    <t>Thư test 3</t>
+  </si>
+  <si>
+    <t>Thư test 4</t>
+  </si>
+  <si>
+    <t>Thư test 5</t>
+  </si>
+  <si>
+    <t>Thư test 6</t>
+  </si>
+  <si>
+    <t>vDaily1</t>
+  </si>
+  <si>
+    <t>vDaily2</t>
+  </si>
+  <si>
+    <t>VDT_MAGENTO_2908</t>
+  </si>
+  <si>
+    <t>vMonthly1</t>
+  </si>
+  <si>
+    <t>vMonthly2</t>
+  </si>
+  <si>
+    <t>vMonthly3</t>
+  </si>
+  <si>
+    <t>vMonthly4</t>
+  </si>
+  <si>
+    <t>vOnetime1</t>
+  </si>
+  <si>
+    <t>vWeekly1</t>
+  </si>
+  <si>
+    <t>vWeekly2</t>
+  </si>
+  <si>
+    <t>vWeekly3</t>
+  </si>
+  <si>
+    <t>vWeekly4</t>
+  </si>
+  <si>
+    <t>Wrong_WSDL_URL</t>
+  </si>
+  <si>
+    <t>xDaily1</t>
+  </si>
+  <si>
+    <t>zMonthly1</t>
+  </si>
+  <si>
+    <t>zMonthly10</t>
+  </si>
+  <si>
+    <t>zMonthly2</t>
+  </si>
+  <si>
+    <t>zMonthly3</t>
+  </si>
+  <si>
+    <t>zMonthly4</t>
+  </si>
+  <si>
+    <t>zMonthly5</t>
+  </si>
+  <si>
+    <t>zMonthly6</t>
+  </si>
+  <si>
+    <t>zMonthly7</t>
+  </si>
+  <si>
+    <t>zMonthly8</t>
+  </si>
+  <si>
+    <t>zMonthly9</t>
+  </si>
+  <si>
+    <t>zOnetime1</t>
+  </si>
+  <si>
+    <t>zOnetime2</t>
+  </si>
+  <si>
+    <t>zWeekly1</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
+    <t>11:30 AM</t>
+  </si>
+  <si>
+    <t>01:00 PM</t>
+  </si>
+  <si>
+    <t>02:00 PM</t>
+  </si>
+  <si>
+    <t>03:00 PM</t>
+  </si>
+  <si>
     <t>04:00 PM</t>
+  </si>
+  <si>
+    <t>Test auto 1</t>
+  </si>
+  <si>
+    <t>Test auto 2</t>
+  </si>
+  <si>
+    <t>Test auto 3</t>
+  </si>
+  <si>
+    <t>Test auto 4</t>
+  </si>
+  <si>
+    <t>Test auto 5</t>
+  </si>
+  <si>
+    <t>Test auto 6</t>
+  </si>
+  <si>
+    <t>04:10 PM</t>
+  </si>
+  <si>
+    <t>04:20 PM</t>
+  </si>
+  <si>
+    <t>04:30 PM</t>
+  </si>
+  <si>
+    <t>Test auto 7</t>
+  </si>
+  <si>
+    <t>Test auto 8</t>
+  </si>
+  <si>
+    <t>Test auto 9</t>
   </si>
 </sst>
 </file>
@@ -229,8 +658,8 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,11 +966,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +978,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="54.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="7" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
@@ -560,7 +989,7 @@
     <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -586,13 +1015,13 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -602,31 +1031,290 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
+      <c r="D2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
-        <v>42</v>
+      <c r="E8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10">
       <formula1>"'246cn,'357,all,Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10">
       <formula1>"Onetime,Daily,Monthly,Weekly"</formula1>
     </dataValidation>
   </dataValidations>
@@ -637,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P12"/>
+      <selection sqref="A1:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,25 +1344,22 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -688,25 +1373,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -719,26 +1401,23 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
+      <c r="D3" s="1">
+        <v>20082019</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -751,20 +1430,23 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P4" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -777,20 +1459,23 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
+      <c r="D5" s="1">
+        <v>8212019</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -803,20 +1488,23 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P6" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -829,20 +1517,23 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -856,22 +1547,22 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P8" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -885,22 +1576,22 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -914,22 +1605,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P10" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -943,22 +1634,22 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -972,30 +1663,4177 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>103</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>104</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>105</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>106</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>108</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P107" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>109</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>110</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>111</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>112</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>113</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>115</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>117</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>121</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>122</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>123</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>126</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>129</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>130</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>131</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>132</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>133</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>134</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>135</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>136</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>137</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>138</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>139</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>140</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>141</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>142</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>143</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>144</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>145</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>146</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>147</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>148</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>149</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>150</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="E149" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P149" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>151</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P150" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>152</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P151" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>153</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
-        <v>12</v>
+      <c r="E152" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>154</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P153" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>155</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>156</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P155" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H8:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H155">
       <formula1>"'246cn,'357,all,Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G155">
       <formula1>"Onetime,Daily,Monthly,Weekly"</formula1>
     </dataValidation>
   </dataValidations>

--- a/UCProject/src/data/ScheduleExcel.xlsx
+++ b/UCProject/src/data/ScheduleExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="440">
   <si>
     <t>Result</t>
   </si>
@@ -576,13 +576,771 @@
   </si>
   <si>
     <t>Test auto 9</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Test6</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test10</t>
+  </si>
+  <si>
+    <t>Test11</t>
+  </si>
+  <si>
+    <t>Test12</t>
+  </si>
+  <si>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t>Test14</t>
+  </si>
+  <si>
+    <t>Test15</t>
+  </si>
+  <si>
+    <t>Test16</t>
+  </si>
+  <si>
+    <t>Test17</t>
+  </si>
+  <si>
+    <t>Test18</t>
+  </si>
+  <si>
+    <t>Test19</t>
+  </si>
+  <si>
+    <t>Test20</t>
+  </si>
+  <si>
+    <t>Test21</t>
+  </si>
+  <si>
+    <t>Test22</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>Test24</t>
+  </si>
+  <si>
+    <t>Test25</t>
+  </si>
+  <si>
+    <t>Test26</t>
+  </si>
+  <si>
+    <t>Test27</t>
+  </si>
+  <si>
+    <t>Test28</t>
+  </si>
+  <si>
+    <t>Test29</t>
+  </si>
+  <si>
+    <t>Test30</t>
+  </si>
+  <si>
+    <t>Test31</t>
+  </si>
+  <si>
+    <t>Test32</t>
+  </si>
+  <si>
+    <t>Test33</t>
+  </si>
+  <si>
+    <t>Test34</t>
+  </si>
+  <si>
+    <t>Test35</t>
+  </si>
+  <si>
+    <t>Test36</t>
+  </si>
+  <si>
+    <t>Test37</t>
+  </si>
+  <si>
+    <t>Test38</t>
+  </si>
+  <si>
+    <t>Test39</t>
+  </si>
+  <si>
+    <t>Test40</t>
+  </si>
+  <si>
+    <t>Test41</t>
+  </si>
+  <si>
+    <t>Test42</t>
+  </si>
+  <si>
+    <t>Test43</t>
+  </si>
+  <si>
+    <t>Test44</t>
+  </si>
+  <si>
+    <t>Test45</t>
+  </si>
+  <si>
+    <t>Test46</t>
+  </si>
+  <si>
+    <t>Test47</t>
+  </si>
+  <si>
+    <t>Test48</t>
+  </si>
+  <si>
+    <t>Test49</t>
+  </si>
+  <si>
+    <t>Test50</t>
+  </si>
+  <si>
+    <t>Test51</t>
+  </si>
+  <si>
+    <t>Test52</t>
+  </si>
+  <si>
+    <t>Test53</t>
+  </si>
+  <si>
+    <t>Test54</t>
+  </si>
+  <si>
+    <t>Test55</t>
+  </si>
+  <si>
+    <t>Test56</t>
+  </si>
+  <si>
+    <t>Test57</t>
+  </si>
+  <si>
+    <t>Test58</t>
+  </si>
+  <si>
+    <t>Test59</t>
+  </si>
+  <si>
+    <t>Test60</t>
+  </si>
+  <si>
+    <t>Test61</t>
+  </si>
+  <si>
+    <t>Test62</t>
+  </si>
+  <si>
+    <t>Test63</t>
+  </si>
+  <si>
+    <t>Test64</t>
+  </si>
+  <si>
+    <t>Test65</t>
+  </si>
+  <si>
+    <t>Test66</t>
+  </si>
+  <si>
+    <t>Test67</t>
+  </si>
+  <si>
+    <t>Test68</t>
+  </si>
+  <si>
+    <t>Test69</t>
+  </si>
+  <si>
+    <t>Test70</t>
+  </si>
+  <si>
+    <t>Test71</t>
+  </si>
+  <si>
+    <t>Test72</t>
+  </si>
+  <si>
+    <t>Test73</t>
+  </si>
+  <si>
+    <t>Test74</t>
+  </si>
+  <si>
+    <t>Test75</t>
+  </si>
+  <si>
+    <t>Test76</t>
+  </si>
+  <si>
+    <t>Test77</t>
+  </si>
+  <si>
+    <t>Test78</t>
+  </si>
+  <si>
+    <t>Test79</t>
+  </si>
+  <si>
+    <t>Test80</t>
+  </si>
+  <si>
+    <t>Test81</t>
+  </si>
+  <si>
+    <t>Test82</t>
+  </si>
+  <si>
+    <t>Test83</t>
+  </si>
+  <si>
+    <t>Test84</t>
+  </si>
+  <si>
+    <t>Test85</t>
+  </si>
+  <si>
+    <t>Test86</t>
+  </si>
+  <si>
+    <t>Test87</t>
+  </si>
+  <si>
+    <t>Test88</t>
+  </si>
+  <si>
+    <t>Test89</t>
+  </si>
+  <si>
+    <t>Test90</t>
+  </si>
+  <si>
+    <t>Test91</t>
+  </si>
+  <si>
+    <t>Test92</t>
+  </si>
+  <si>
+    <t>Test93</t>
+  </si>
+  <si>
+    <t>Test94</t>
+  </si>
+  <si>
+    <t>Test95</t>
+  </si>
+  <si>
+    <t>Test96</t>
+  </si>
+  <si>
+    <t>Test97</t>
+  </si>
+  <si>
+    <t>Test98</t>
+  </si>
+  <si>
+    <t>Test99</t>
+  </si>
+  <si>
+    <t>Test100</t>
+  </si>
+  <si>
+    <t>Test101</t>
+  </si>
+  <si>
+    <t>Test102</t>
+  </si>
+  <si>
+    <t>Test103</t>
+  </si>
+  <si>
+    <t>Test104</t>
+  </si>
+  <si>
+    <t>Test105</t>
+  </si>
+  <si>
+    <t>Test106</t>
+  </si>
+  <si>
+    <t>Test107</t>
+  </si>
+  <si>
+    <t>Test108</t>
+  </si>
+  <si>
+    <t>Test109</t>
+  </si>
+  <si>
+    <t>Test110</t>
+  </si>
+  <si>
+    <t>Test111</t>
+  </si>
+  <si>
+    <t>Test112</t>
+  </si>
+  <si>
+    <t>Test113</t>
+  </si>
+  <si>
+    <t>Test114</t>
+  </si>
+  <si>
+    <t>Test115</t>
+  </si>
+  <si>
+    <t>Test116</t>
+  </si>
+  <si>
+    <t>Test117</t>
+  </si>
+  <si>
+    <t>Test118</t>
+  </si>
+  <si>
+    <t>Test119</t>
+  </si>
+  <si>
+    <t>Test120</t>
+  </si>
+  <si>
+    <t>Test121</t>
+  </si>
+  <si>
+    <t>Test122</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Test124</t>
+  </si>
+  <si>
+    <t>Test125</t>
+  </si>
+  <si>
+    <t>Test126</t>
+  </si>
+  <si>
+    <t>Test127</t>
+  </si>
+  <si>
+    <t>Test128</t>
+  </si>
+  <si>
+    <t>Test129</t>
+  </si>
+  <si>
+    <t>Test130</t>
+  </si>
+  <si>
+    <t>Test131</t>
+  </si>
+  <si>
+    <t>Test132</t>
+  </si>
+  <si>
+    <t>Test133</t>
+  </si>
+  <si>
+    <t>Test134</t>
+  </si>
+  <si>
+    <t>Test135</t>
+  </si>
+  <si>
+    <t>Test136</t>
+  </si>
+  <si>
+    <t>Test137</t>
+  </si>
+  <si>
+    <t>Test138</t>
+  </si>
+  <si>
+    <t>Test139</t>
+  </si>
+  <si>
+    <t>Test140</t>
+  </si>
+  <si>
+    <t>Test141</t>
+  </si>
+  <si>
+    <t>Test142</t>
+  </si>
+  <si>
+    <t>Test143</t>
+  </si>
+  <si>
+    <t>Test144</t>
+  </si>
+  <si>
+    <t>Test145</t>
+  </si>
+  <si>
+    <t>Test146</t>
+  </si>
+  <si>
+    <t>Test147</t>
+  </si>
+  <si>
+    <t>Test148</t>
+  </si>
+  <si>
+    <t>Test149</t>
+  </si>
+  <si>
+    <t>Test150</t>
+  </si>
+  <si>
+    <t>Test151</t>
+  </si>
+  <si>
+    <t>Test152</t>
+  </si>
+  <si>
+    <t>Test153</t>
+  </si>
+  <si>
+    <t>Test154</t>
+  </si>
+  <si>
+    <t>Test155</t>
+  </si>
+  <si>
+    <t>Test156</t>
+  </si>
+  <si>
+    <t>Test157</t>
+  </si>
+  <si>
+    <t>Test158</t>
+  </si>
+  <si>
+    <t>Test159</t>
+  </si>
+  <si>
+    <t>Test160</t>
+  </si>
+  <si>
+    <t>Test161</t>
+  </si>
+  <si>
+    <t>Test162</t>
+  </si>
+  <si>
+    <t>Test163</t>
+  </si>
+  <si>
+    <t>Test164</t>
+  </si>
+  <si>
+    <t>Test165</t>
+  </si>
+  <si>
+    <t>Test166</t>
+  </si>
+  <si>
+    <t>Test167</t>
+  </si>
+  <si>
+    <t>Test168</t>
+  </si>
+  <si>
+    <t>Test169</t>
+  </si>
+  <si>
+    <t>Test170</t>
+  </si>
+  <si>
+    <t>Test171</t>
+  </si>
+  <si>
+    <t>Test172</t>
+  </si>
+  <si>
+    <t>Test173</t>
+  </si>
+  <si>
+    <t>Test174</t>
+  </si>
+  <si>
+    <t>Test175</t>
+  </si>
+  <si>
+    <t>Test176</t>
+  </si>
+  <si>
+    <t>Test177</t>
+  </si>
+  <si>
+    <t>Test178</t>
+  </si>
+  <si>
+    <t>Test179</t>
+  </si>
+  <si>
+    <t>Test180</t>
+  </si>
+  <si>
+    <t>Test181</t>
+  </si>
+  <si>
+    <t>Test182</t>
+  </si>
+  <si>
+    <t>Test183</t>
+  </si>
+  <si>
+    <t>Test184</t>
+  </si>
+  <si>
+    <t>Test185</t>
+  </si>
+  <si>
+    <t>Test186</t>
+  </si>
+  <si>
+    <t>Test187</t>
+  </si>
+  <si>
+    <t>Test188</t>
+  </si>
+  <si>
+    <t>Test189</t>
+  </si>
+  <si>
+    <t>Test190</t>
+  </si>
+  <si>
+    <t>Test191</t>
+  </si>
+  <si>
+    <t>Test192</t>
+  </si>
+  <si>
+    <t>Test193</t>
+  </si>
+  <si>
+    <t>Test194</t>
+  </si>
+  <si>
+    <t>Test195</t>
+  </si>
+  <si>
+    <t>Test196</t>
+  </si>
+  <si>
+    <t>Test197</t>
+  </si>
+  <si>
+    <t>Test198</t>
+  </si>
+  <si>
+    <t>Test199</t>
+  </si>
+  <si>
+    <t>Test200</t>
+  </si>
+  <si>
+    <t>Test201</t>
+  </si>
+  <si>
+    <t>Test202</t>
+  </si>
+  <si>
+    <t>Test203</t>
+  </si>
+  <si>
+    <t>Test204</t>
+  </si>
+  <si>
+    <t>Test205</t>
+  </si>
+  <si>
+    <t>Test206</t>
+  </si>
+  <si>
+    <t>Test207</t>
+  </si>
+  <si>
+    <t>Test208</t>
+  </si>
+  <si>
+    <t>Test209</t>
+  </si>
+  <si>
+    <t>Test210</t>
+  </si>
+  <si>
+    <t>Test211</t>
+  </si>
+  <si>
+    <t>Test212</t>
+  </si>
+  <si>
+    <t>Test213</t>
+  </si>
+  <si>
+    <t>Test214</t>
+  </si>
+  <si>
+    <t>Test215</t>
+  </si>
+  <si>
+    <t>Test216</t>
+  </si>
+  <si>
+    <t>Test217</t>
+  </si>
+  <si>
+    <t>Test218</t>
+  </si>
+  <si>
+    <t>Test219</t>
+  </si>
+  <si>
+    <t>Test220</t>
+  </si>
+  <si>
+    <t>Test221</t>
+  </si>
+  <si>
+    <t>Test222</t>
+  </si>
+  <si>
+    <t>Test223</t>
+  </si>
+  <si>
+    <t>Test224</t>
+  </si>
+  <si>
+    <t>Test225</t>
+  </si>
+  <si>
+    <t>Test226</t>
+  </si>
+  <si>
+    <t>Test227</t>
+  </si>
+  <si>
+    <t>Test228</t>
+  </si>
+  <si>
+    <t>Test229</t>
+  </si>
+  <si>
+    <t>Test230</t>
+  </si>
+  <si>
+    <t>Test231</t>
+  </si>
+  <si>
+    <t>Test232</t>
+  </si>
+  <si>
+    <t>Test233</t>
+  </si>
+  <si>
+    <t>Test234</t>
+  </si>
+  <si>
+    <t>Test235</t>
+  </si>
+  <si>
+    <t>Test236</t>
+  </si>
+  <si>
+    <t>Test237</t>
+  </si>
+  <si>
+    <t>Test238</t>
+  </si>
+  <si>
+    <t>Test239</t>
+  </si>
+  <si>
+    <t>Test240</t>
+  </si>
+  <si>
+    <t>Test241</t>
+  </si>
+  <si>
+    <t>Test242</t>
+  </si>
+  <si>
+    <t>Test243</t>
+  </si>
+  <si>
+    <t>Test244</t>
+  </si>
+  <si>
+    <t>Test245</t>
+  </si>
+  <si>
+    <t>Test246</t>
+  </si>
+  <si>
+    <t>Test247</t>
+  </si>
+  <si>
+    <t>Test248</t>
+  </si>
+  <si>
+    <t>Test249</t>
+  </si>
+  <si>
+    <t>Test250</t>
+  </si>
+  <si>
+    <t>Test251</t>
+  </si>
+  <si>
+    <t>Test252</t>
+  </si>
+  <si>
+    <t>Test253</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,30 +1724,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="54.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1021,12 +1779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -1053,12 +1811,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1085,12 +1843,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -1117,12 +1875,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1149,12 +1907,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1181,12 +1939,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -1213,12 +1971,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1245,12 +2003,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1277,12 +2035,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1308,6 +2066,1967 @@
       <c r="P10" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>9</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>9</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>9</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>9</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>9</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>9</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>9</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>9</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>9</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>9</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>9</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>9</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>9</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>9</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>9</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>9</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>9</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>9</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>9</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>9</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>9</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>9</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>9</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>9</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>9</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>9</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>9</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>9</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>9</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>9</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>9</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>9</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>9</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>9</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>9</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>9</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>9</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>9</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>9</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>9</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>9</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>9</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>9</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>9</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>9</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>9</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>9</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>9</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>9</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>9</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>9</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>9</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>9</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>9</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>9</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>9</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>9</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>9</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>9</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>9</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>9</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>9</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>9</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>9</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>9</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>9</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>9</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>9</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>9</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>9</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>9</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>9</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>9</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>9</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>9</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>9</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>9</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>9</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>9</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>9</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>9</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>9</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>9</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>9</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>9</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>9</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>9</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>9</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>9</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>9</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>9</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>9</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>9</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>9</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>9</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>9</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>9</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>9</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>9</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>9</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>9</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>9</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>9</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>9</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>9</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>9</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>9</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>9</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>9</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>9</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>9</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
